--- a/nmadb/482760.xlsx
+++ b/nmadb/482760.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -83,12 +83,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Study id</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>id</t>
@@ -212,22 +209,6 @@
     <t>Benefit</t>
   </si>
   <si>
-    <r>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (t1 vs. t2)</t>
-    </r>
-  </si>
-  <si>
     <t>Cunningham(1)</t>
   </si>
   <si>
@@ -253,13 +234,22 @@
   </si>
   <si>
     <t>Treatment</t>
+  </si>
+  <si>
+    <t>effect=OR</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +286,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -327,6 +318,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -342,14 +334,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -433,7 +417,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -461,63 +445,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="35">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,7 +532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -608,7 +606,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -643,7 +640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,7 +815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -827,16 +823,16 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="10" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="11" customWidth="1"/>
     <col min="5" max="6" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="14" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="13" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
@@ -844,47 +840,47 @@
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="B2" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -895,78 +891,94 @@
       <c r="F2" s="10">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="23">
         <v>0.73</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="24">
         <v>0.42</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="25">
         <v>1.28</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>47</v>
+      <c r="J2" s="13">
+        <f>(I2-H2)/(1.96^2)</f>
+        <v>0.2238650562265723</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="12"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10">
         <v>3</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="23">
         <v>0.61</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="24">
         <v>0.35</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="24">
         <v>1.07</v>
       </c>
-      <c r="M3" s="22">
+      <c r="J3" s="13">
+        <f>(I3-H3)/(1.96^2)</f>
+        <v>0.18742190753852564</v>
+      </c>
+      <c r="M3" s="19">
         <v>1</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1">
       <c r="A4" s="9"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3</v>
+      </c>
+      <c r="G4" s="26">
         <v>0.84</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="27">
         <v>0.48</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="27">
         <v>1.45</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="M4" s="23">
-        <v>2</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J38" si="0">(I4-H4)/(1.96^2)</f>
+        <v>0.25249895876718037</v>
+      </c>
+      <c r="M4" s="20">
+        <v>2</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="B5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
@@ -977,74 +989,92 @@
       <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="23">
         <v>0.75</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="24">
         <v>0.43</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="25">
         <v>1.31</v>
       </c>
-      <c r="M5" s="23">
-        <v>3</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22907122032486468</v>
+      </c>
+      <c r="M5" s="20">
+        <v>3</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="B6" s="12"/>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="24">
         <v>0.33</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="24">
         <v>1</v>
       </c>
-      <c r="M6" s="24">
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17440649729279467</v>
+      </c>
+      <c r="M6" s="21">
         <v>4</v>
       </c>
-      <c r="N6" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" s="12"/>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
       <c r="E7" s="10">
         <v>2</v>
       </c>
       <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="23">
         <v>0.76</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="24">
         <v>0.44</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="24">
         <v>1.32</v>
       </c>
-      <c r="M7" s="24">
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22907122032486468</v>
+      </c>
+      <c r="M7" s="21">
         <v>5</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11">
         <v>3</v>
@@ -1055,59 +1085,80 @@
       <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="23">
         <v>1.07</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="24">
         <v>0.59</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="25">
         <v>1.92</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.34620991253644318</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" s="12"/>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="23">
         <v>0.6</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="24">
         <v>0.33</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="24">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19002498958767181</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="B10" s="12"/>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
       <c r="E10" s="10">
         <v>2</v>
       </c>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="24">
         <v>0.31</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="24">
         <v>0.99</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17700957934194086</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="11">
         <v>4</v>
@@ -1118,486 +1169,568 @@
       <c r="F11" s="10">
         <v>2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="23">
         <v>0.45</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="24">
         <v>0.27</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="25">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12494793835901709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" s="12"/>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="F12" s="10">
         <v>3</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="23">
         <v>0.39</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="24">
         <v>0.23</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="24">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10932944606413997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13" s="12"/>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
       <c r="E13" s="10">
         <v>2</v>
       </c>
       <c r="F13" s="10">
         <v>3</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="23">
         <v>0.86</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="24">
         <v>0.51</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="24">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.24729279466888798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="B14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="11">
         <v>5</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>4</v>
       </c>
       <c r="F14" s="10">
         <v>2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="23">
         <v>0.39</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="24">
         <v>0.13</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="25">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27592669720949609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="11">
         <v>6</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>4</v>
       </c>
       <c r="F15" s="10">
         <v>2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="23">
         <v>0.6</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="24">
         <v>0.19</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="24">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.45553935860058314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1">
       <c r="A16" s="9"/>
       <c r="B16" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11">
         <v>7</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>4</v>
       </c>
       <c r="F16" s="10">
         <v>2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="23">
         <v>0.39</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="24">
         <v>0.23</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="24">
         <v>0.64</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10672636401499377</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="B17" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="11">
         <v>8</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>4</v>
       </c>
       <c r="F17" s="10">
         <v>2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="23">
         <v>1.05</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="24">
         <v>0.49</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="24">
         <v>2.25</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.45814244064972931</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="3" customFormat="1">
       <c r="A18" s="9"/>
       <c r="B18" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11">
         <v>9</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>4</v>
       </c>
       <c r="F18" s="10">
         <v>2</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="23">
         <v>0.37</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="24">
         <v>0.13</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="24">
         <v>1</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22646813827571846</v>
+      </c>
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="B19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11">
         <v>10</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>4</v>
       </c>
       <c r="F19" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="23">
         <v>0.82</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="24">
         <v>2.36</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53883798417326112</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="B20" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="11">
         <v>11</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <v>4</v>
       </c>
       <c r="F20" s="10">
         <v>2</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="23">
         <v>0.84</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="24">
         <v>0.37</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="24">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.40347771761765927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="31" customFormat="1">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="11">
         <v>12</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <v>4</v>
       </c>
       <c r="F21" s="10">
         <v>2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="30">
         <v>0.76</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="24">
         <v>0.49</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="24">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17440649729279467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="B22" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="11">
         <v>13</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <v>5</v>
       </c>
       <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="23">
         <v>0.3</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="24">
         <v>0.18</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>8.3298625572678059E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="3" customFormat="1">
       <c r="A23" s="9"/>
       <c r="B23" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11">
         <v>14</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>5</v>
       </c>
       <c r="F23" s="10">
         <v>3</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="23">
         <v>0.48</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="24">
         <v>0.24</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="24">
         <v>0.94</v>
       </c>
-      <c r="J23" s="14"/>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18221574344023325</v>
+      </c>
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="B24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="11">
         <v>15</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>5</v>
       </c>
       <c r="F24" s="10">
         <v>3</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="23">
         <v>0.51</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="24">
         <v>0.32</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="24">
         <v>0.82</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13015410245730946</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="3" customFormat="1">
       <c r="A25" s="9"/>
       <c r="B25" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11">
         <v>16</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="16">
         <v>5</v>
       </c>
       <c r="F25" s="10">
         <v>3</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="23">
         <v>0.34</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="24">
         <v>0.16</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="24">
         <v>0.73</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.14837567680133279</v>
+      </c>
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="B26" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="11">
         <v>17</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>5</v>
       </c>
       <c r="F26" s="10">
         <v>3</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="24">
         <v>0.35</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="24">
         <v>0.98</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16399416909620992</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="3" customFormat="1">
       <c r="A27" s="9"/>
       <c r="B27" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11">
         <v>18</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="16">
         <v>5</v>
       </c>
       <c r="F27" s="10">
         <v>3</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="23">
         <v>0.43</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="24">
         <v>0.26</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="24">
         <v>0.71</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157851</v>
+      </c>
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="5" customFormat="1">
       <c r="A28" s="9"/>
       <c r="B28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11">
         <v>19</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>5</v>
       </c>
       <c r="F28" s="10">
         <v>3</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="23">
         <v>0.31</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="24">
         <v>0.17</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J28" s="14"/>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10412328196584755</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="B29" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="11">
         <v>20</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="16">
         <v>5</v>
       </c>
       <c r="F29" s="10">
         <v>3</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="23">
         <v>0.48</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="24">
         <v>0.32</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="24">
         <v>0.73</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10672636401499376</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="B30" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="11">
         <v>21</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="16">
         <v>5</v>
       </c>
       <c r="F30" s="10">
         <v>3</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="23">
         <v>0.52</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="24">
         <v>0.35</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="24">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11193252811328615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="B31" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="11">
         <v>22</v>
@@ -1608,19 +1741,23 @@
       <c r="F31" s="10">
         <v>3</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="23">
         <v>0.42</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="24">
         <v>0.13</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="24">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.30716368179925035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="B32" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="11">
         <v>23</v>
@@ -1631,19 +1768,23 @@
       <c r="F32" s="10">
         <v>3</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="23">
         <v>0.48</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="24">
         <v>0.18</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="24">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.28633902540608086</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="11">
         <v>24</v>
@@ -1654,19 +1795,23 @@
       <c r="F33" s="10">
         <v>3</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="23">
         <v>0.68</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="24">
         <v>0.39</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="24">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20824656393169513</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="11">
         <v>25</v>
@@ -1677,19 +1822,23 @@
       <c r="F34" s="10">
         <v>3</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="23">
         <v>0.45</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="24">
         <v>0.23</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="24">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16920033319450231</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="11">
         <v>26</v>
@@ -1700,19 +1849,23 @@
       <c r="F35" s="10">
         <v>3</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="23">
         <v>0.62</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="24">
         <v>0.39</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="24">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15618492294877134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11">
         <v>27</v>
@@ -1723,19 +1876,23 @@
       <c r="F36" s="10">
         <v>3</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="23">
         <v>1.02</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="24">
         <v>0.73</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="24">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18221574344023325</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="11">
         <v>28</v>
@@ -1746,19 +1903,23 @@
       <c r="F37" s="10">
         <v>3</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="23">
         <v>0.82</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="24">
         <v>0.36</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="24">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.38785922532278228</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="11">
         <v>29</v>
@@ -1769,14 +1930,18 @@
       <c r="F38" s="10">
         <v>3</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="23">
         <v>1.37</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="24">
         <v>0.87</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="24">
         <v>2.16</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33579758433985846</v>
       </c>
     </row>
   </sheetData>
@@ -1792,12 +1957,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1809,12 +1974,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
